--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_372__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_372__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5429,7 +5429,7 @@
                   <c:v>55.92876434326172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.86933517456055</c:v>
+                  <c:v>21.86933898925781</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>52.25759506225586</c:v>
@@ -5444,7 +5444,7 @@
                   <c:v>85.85438537597656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.57015991210938</c:v>
+                  <c:v>97.57017517089844</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>48.79577255249023</c:v>
@@ -5453,13 +5453,13 @@
                   <c:v>97.09190368652344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.32374572753906</c:v>
+                  <c:v>90.32376098632812</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>80.16743469238281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.61492156982422</c:v>
+                  <c:v>37.61491775512695</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72.27604675292969</c:v>
@@ -5477,22 +5477,22 @@
                   <c:v>76.50999450683594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.57014083862305</c:v>
+                  <c:v>53.57014465332031</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>65.16506958007812</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.95584106445312</c:v>
+                  <c:v>56.95584869384766</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.11097717285156</c:v>
+                  <c:v>90.11099243164062</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.95179748535156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.52249145507812</c:v>
+                  <c:v>95.52250671386719</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>88.72879028320312</c:v>
@@ -5501,7 +5501,7 @@
                   <c:v>97.24107360839844</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.22843933105469</c:v>
+                  <c:v>66.22843170166016</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>98.57276916503906</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>94.78695678710938</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.25963973999023</c:v>
+                  <c:v>37.2596435546875</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.69465637207031</c:v>
@@ -5558,7 +5558,7 @@
                   <c:v>83.41778564453125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97.04997253417969</c:v>
+                  <c:v>97.04995727539062</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.32534790039062</c:v>
@@ -5567,7 +5567,7 @@
                   <c:v>82.81341552734375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>85.79527282714844</c:v>
+                  <c:v>85.79525756835938</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>97.40486145019531</c:v>
@@ -5609,7 +5609,7 @@
                   <c:v>97.24026489257812</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>87.57989501953125</c:v>
+                  <c:v>87.57991027832031</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>96.39541625976562</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>62.80731582641602</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.6072998046875</c:v>
+                  <c:v>82.60728454589844</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>67.88768005371094</c:v>
@@ -5639,19 +5639,19 @@
                   <c:v>97.39993286132812</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.97690582275391</c:v>
+                  <c:v>27.97690773010254</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>65.94236755371094</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.18267822265625</c:v>
+                  <c:v>85.18266296386719</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.62267303466797</c:v>
+                  <c:v>56.62266540527344</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>81.71427917480469</c:v>
+                  <c:v>81.71426391601562</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>59.08686065673828</c:v>
@@ -5666,7 +5666,7 @@
                   <c:v>97.35557556152344</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84.00360107421875</c:v>
+                  <c:v>84.00361633300781</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>61.62421417236328</c:v>
@@ -5678,7 +5678,7 @@
                   <c:v>96.54507446289062</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>80.04153442382812</c:v>
+                  <c:v>80.04154968261719</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>80.1422119140625</c:v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>21.86933517456055</v>
+        <v>21.86933898925781</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.57015991210938</v>
+        <v>97.57017517089844</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>90.32374572753906</v>
+        <v>90.32376098632812</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>37.61492156982422</v>
+        <v>37.61491775512695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>53.57014083862305</v>
+        <v>53.57014465332031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>56.95584106445312</v>
+        <v>56.95584869384766</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.11097717285156</v>
+        <v>90.11099243164062</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>95.52249145507812</v>
+        <v>95.52250671386719</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>66.22843933105469</v>
+        <v>66.22843170166016</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.25963973999023</v>
+        <v>37.2596435546875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>97.04997253417969</v>
+        <v>97.04995727539062</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>85.79527282714844</v>
+        <v>85.79525756835938</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>87.57989501953125</v>
+        <v>87.57991027832031</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.6072998046875</v>
+        <v>82.60728454589844</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.97690582275391</v>
+        <v>27.97690773010254</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>85.18267822265625</v>
+        <v>85.18266296386719</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>56.62267303466797</v>
+        <v>56.62266540527344</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>81.71427917480469</v>
+        <v>81.71426391601562</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>85.0705</v>
       </c>
       <c r="F85">
-        <v>84.00360107421875</v>
+        <v>84.00361633300781</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>80.2504</v>
       </c>
       <c r="F89">
-        <v>80.04153442382812</v>
+        <v>80.04154968261719</v>
       </c>
     </row>
     <row r="90" spans="1:6">
